--- a/doc/ue_package.xlsx
+++ b/doc/ue_package.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D999B42E-C438-461E-9C07-3D00B17F5BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>UPackage* LoadPackage(UPackage* InOuter, const TCHAR* InLongPackageName, uint32 LoadFlags, FArchive* InReaderOverride, const FLinkerInstancingContext* InstancingContext)</t>
   </si>
@@ -32,15 +33,185 @@
     <t>UPackage* LoadPackageInternal(UPackage* InOuter, const TCHAR* InLongPackageNameOrFilename, uint32 LoadFlags, FLinkerLoad* ImportLinker, FArchive* InReaderOverride, const FLinkerInstancingContext* InstancingContext)</t>
   </si>
   <si>
-    <t>加载流程</t>
+    <t>UTexture2D* pObj1 = Cast&lt;UTexture2D&gt;(StaticLoadObject(UTexture2D::StaticClass(), NULL, TEXT("/Game/AdvancedVillagePack/Textures/11ppp")));</t>
+  </si>
+  <si>
+    <t>UObject* StaticLoadObject(UClass* ObjectClass, UObject* InOuter, const TCHAR* InName, const TCHAR* Filename, uint32 LoadFlags, UPackageMap* Sandbox, bool bAllowObjectReconciliation, const FLinkerInstancingContext* InstancingContext)</t>
+  </si>
+  <si>
+    <t>UObject* StaticLoadObjectInternal(UClass* ObjectClass, UObject* InOuter, const TCHAR* InName, const TCHAR* Filename, uint32 LoadFlags, UPackageMap* Sandbox, bool bAllowObjectReconciliation, const FLinkerInstancingContext* InstancingContext)</t>
+  </si>
+  <si>
+    <t>bool ResolveName(UObject*&amp; InPackage, FString&amp; InOutName, bool Create, bool Throw, uint32 LoadFlags /*= LOAD_None*/, const FLinkerInstancingContext* InstancingContext)</t>
+  </si>
+  <si>
+    <t>BeginLoad(LoadContext, InLongPackageNameOrFilename);</t>
+  </si>
+  <si>
+    <t>// Try to load.</t>
+  </si>
+  <si>
+    <t>FlushAsyncLoading();</t>
+  </si>
+  <si>
+    <t>将异步加载的全部执行完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先创建一个Upackage对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPackage* CreatePackage(const TCHAR* PackageName )</t>
+  </si>
+  <si>
+    <t>Result = NewObject&lt;UPackage&gt;(nullptr, NewPackageName, RF_Public);</t>
+  </si>
+  <si>
+    <t>NewPackageName = /Game/AdvancedVillagePack/Textures/11ppp</t>
+  </si>
+  <si>
+    <t>创建Upackage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建FLinkerLoad对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLinkerLoad* FLinkerLoad::CreateLinker(FUObjectSerializeContext* LoadContext, UPackage* Parent, const TCHAR* Filename, uint32 LoadFlags, FArchive* InLoader /*= nullptr*/, const FLinkerInstancingContext* InstancingContext /*= nullptr*/)</t>
+  </si>
+  <si>
+    <t>FLinkerLoad* FLinkerLoad::CreateLinkerAsync(FUObjectSerializeContext* LoadContext, UPackage* Parent, const TCHAR* Filename, uint32 LoadFlags, const FLinkerInstancingContext* InstancingContext</t>
+  </si>
+  <si>
+    <t>, TFunction&lt;void()&gt;&amp;&amp; InSummaryReadyCallback</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>Linker = new FLinkerLoad(Parent, Filename, LoadFlags, InstancingContext ? *InstancingContext : FLinkerInstancingContext());</t>
+  </si>
+  <si>
+    <t>New一个对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置上面的Upackage对象的LinkerLoad=Linker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (Linker-&gt;Tick(0.f, false, false, nullptr) == LINKER_Failed)</t>
+  </si>
+  <si>
+    <t>开始加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status = CreateLoader(TFunction&lt;void()&gt;([]() {}));</t>
+  </si>
+  <si>
+    <t>内部读取文件摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Create loader, aka FArchive used for serialization and also precache the package file summary.</t>
+  </si>
+  <si>
+    <t>// false is returned until any precaching is complete.</t>
+  </si>
+  <si>
+    <t>反序列化文件基础信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Serialize the package file summary and presize the various arrays (name, import &amp; export map)</t>
+  </si>
+  <si>
+    <t>Status = SerializePackageFileSummary();</t>
+  </si>
+  <si>
+    <t>资源摘要就是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号，各个字段的大小个数等等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了加载，还进行资源版本等对比判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预先分配Import,Export,namemap数组大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Serialize the name map and register the names.</t>
+  </si>
+  <si>
+    <t>Status = SerializeNameMap();</t>
+  </si>
+  <si>
+    <t>// Serialize the gatherable text data map.</t>
+  </si>
+  <si>
+    <t>Status = SerializeGatherableTextDataMap();</t>
+  </si>
+  <si>
+    <t>// Serialize the import map.</t>
+  </si>
+  <si>
+    <t>Status = SerializeImportMap();</t>
+  </si>
+  <si>
+    <t>// Serialize the export map.</t>
+  </si>
+  <si>
+    <t>Status = SerializeExportMap();</t>
+  </si>
+  <si>
+    <t>默认的资源加载的Flag就E.ObjectFlags = RF_Public | RF_Standalone | RF_Transactional (11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linker-&gt;LoadAllObjects(GEventDrivenLoaderEnabled);</t>
+  </si>
+  <si>
+    <t>加载所有对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载所有ExportMap里面的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历所有的exportdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用StaticAllocateObject创建对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部调用Obj = (UObject *)GUObjectAllocator.AllocateUObject(TotalSize,Alignment,GIsInitialLoad);创建对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个函数传入的objflag就是在其ExportObj里面的Flag基础上变换而来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +224,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -76,11 +254,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -360,39 +537,304 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A046AB0B-8796-4A06-809F-358A1ED5E280}">
+  <dimension ref="C5:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="50.875" customWidth="1"/>
-    <col min="3" max="3" width="48.75" customWidth="1"/>
-    <col min="4" max="14" width="31.5" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="57" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D37" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D40" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F46" s="1"/>
+      <c r="G46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F47" s="1"/>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G48" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>32</v>
+      </c>
+      <c r="S52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="S54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>44</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D73" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D74" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="H76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>51</v>
+      </c>
+      <c r="S78" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/ue_package.xlsx
+++ b/doc/ue_package.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D999B42E-C438-461E-9C07-3D00B17F5BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1F27BF-BA13-4E42-B6CE-C86435C6338A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>UPackage* LoadPackage(UPackage* InOuter, const TCHAR* InLongPackageName, uint32 LoadFlags, FArchive* InReaderOverride, const FLinkerInstancingContext* InstancingContext)</t>
   </si>
@@ -173,37 +173,46 @@
     <t>// Serialize the export map.</t>
   </si>
   <si>
+    <t>默认的资源加载的Flag就E.ObjectFlags = RF_Public | RF_Standalone | RF_Transactional (11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linker-&gt;LoadAllObjects(GEventDrivenLoaderEnabled);</t>
+  </si>
+  <si>
+    <t>加载所有对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载所有ExportMap里面的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历所有的exportdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用StaticAllocateObject创建对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部调用Obj = (UObject *)GUObjectAllocator.AllocateUObject(TotalSize,Alignment,GIsInitialLoad);创建对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个函数传入的objflag就是在其ExportObj里面的Flag基础上变换而来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载资源的顺序流程，以同步加载一个图片为例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要就是LoadPackage的时候，加载的资源默认是有RF_Standalone属性的，而在编辑器模式下，不释放带有该属性的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Status = SerializeExportMap();</t>
-  </si>
-  <si>
-    <t>默认的资源加载的Flag就E.ObjectFlags = RF_Public | RF_Standalone | RF_Transactional (11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linker-&gt;LoadAllObjects(GEventDrivenLoaderEnabled);</t>
-  </si>
-  <si>
-    <t>加载所有对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载所有ExportMap里面的对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遍历所有的exportdata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用StaticAllocateObject创建对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部调用Obj = (UObject *)GUObjectAllocator.AllocateUObject(TotalSize,Alignment,GIsInitialLoad);创建对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个函数传入的objflag就是在其ExportObj里面的Flag基础上变换而来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +240,15 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -254,10 +272,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -538,303 +557,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A046AB0B-8796-4A06-809F-358A1ED5E280}">
-  <dimension ref="C5:T78"/>
+  <dimension ref="B2:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E18" s="1" t="s">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="F21" t="s">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D23" s="1" t="s">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E25" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D29" s="1" t="s">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D30" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="33" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E34" s="1" t="s">
+    <row r="35" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E35" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
+    <row r="36" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D37" s="1" t="s">
+    <row r="38" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D38" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D40" s="1" t="s">
+    <row r="41" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D41" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
+    <row r="42" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="E44">
+    <row r="45" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E45">
         <v>1</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S45" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="46" spans="4:20" x14ac:dyDescent="0.2">
       <c r="F46" s="1"/>
-      <c r="G46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T46" t="s">
-        <v>34</v>
+      <c r="G46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S46" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="4:20" x14ac:dyDescent="0.2">
       <c r="F47" s="1"/>
-      <c r="G47" t="s">
+      <c r="G47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F48" s="1"/>
+      <c r="G48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="G48" s="1" t="s">
+    <row r="49" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="G49" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E50">
+    <row r="51" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E51">
         <v>2</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="G51" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="52" spans="5:19" x14ac:dyDescent="0.2">
       <c r="G52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
         <v>32</v>
       </c>
-      <c r="S52" t="s">
+      <c r="S53" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="S54" t="s">
+    <row r="55" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="S55" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E55">
+    <row r="56" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E56">
         <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="G56" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="57" spans="5:19" x14ac:dyDescent="0.2">
       <c r="G57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E60">
+    <row r="61" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E61">
         <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="G61" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="62" spans="5:19" x14ac:dyDescent="0.2">
       <c r="G62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E64">
+    <row r="65" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E65">
         <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="G65" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="66" spans="4:19" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E68">
+    <row r="69" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E69">
         <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="G69" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="70" spans="4:19" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>54</v>
+      </c>
+      <c r="S71" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D73" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="74" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D74" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D75" t="s">
-        <v>46</v>
+      <c r="D75" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="H76" t="s">
-        <v>49</v>
+      <c r="D76" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="4:19" x14ac:dyDescent="0.2">
       <c r="H77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="4:19" x14ac:dyDescent="0.2">
       <c r="H78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>50</v>
+      </c>
+      <c r="S79" t="s">
         <v>51</v>
-      </c>
-      <c r="S78" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/ue_package.xlsx
+++ b/doc/ue_package.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1F27BF-BA13-4E42-B6CE-C86435C6338A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE4C4CC-4FB0-4062-AD0B-22C5FC045B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="基础" sheetId="3" r:id="rId1"/>
+    <sheet name="流程解析" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>UPackage* LoadPackage(UPackage* InOuter, const TCHAR* InLongPackageName, uint32 LoadFlags, FArchive* InReaderOverride, const FLinkerInstancingContext* InstancingContext)</t>
   </si>
@@ -214,13 +215,54 @@
   <si>
     <t>Status = SerializeExportMap();</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要注意加载出来的有好几个对象，都是通过Outclass相互依赖的，不会被GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有真正的资源对象是有Standalone标志的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPackage 序列化到本地之后就是 uasset 文件。uasset 是本地的资源文件，文件格式如图</t>
+  </si>
+  <si>
+    <t>File Summary 文件头信息</t>
+  </si>
+  <si>
+    <t>Name Table 包中对象的名字表</t>
+  </si>
+  <si>
+    <t>Import Table 存放被该包中对象引用的其它包中的对象信息 (路径名和类型)</t>
+  </si>
+  <si>
+    <t>Export Table 该包中的对象信息 (路径名和类型)</t>
+  </si>
+  <si>
+    <t>Export Objects 所有 Export Table 中对象的实际数据</t>
+  </si>
+  <si>
+    <t>可以把 ImportTable 看做是这个资源所依赖的其他资源的列表，ExportTable 就是这个资源本身的列表</t>
+  </si>
+  <si>
+    <t>FLinkerLoad 是作为 uasset 和内存 UPackage 的中间桥梁。在加载内容生成 UPackage 的时候，UPackage 会根据名字找到 uasset 文件，由 FLinkerLoad 来负责加载</t>
+  </si>
+  <si>
+    <t>[UAssetImportData] = (Name=AssetImportData)</t>
+  </si>
+  <si>
+    <t>[UMetaData] = (Name=PackageMetaData)</t>
+  </si>
+  <si>
+    <t>[UTexture2D] = (Name=xxx111)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +293,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,11 +328,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -292,6 +353,194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="在这里插入图片描述">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA7C795F-61DF-BD8B-28E5-07F6E5207197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2095500" y="866775"/>
+          <a:ext cx="2638425" cy="6181725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="在这里插入图片描述">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B111941F-3B24-6EEB-0EFD-89A924A19067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2047875" y="7972425"/>
+          <a:ext cx="5381625" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="在这里插入图片描述">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E83480-A72B-1F8E-6BAB-2DB03D8B7D2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2019300" y="11639550"/>
+          <a:ext cx="11906250" cy="6115050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -556,11 +805,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCBA259-14B5-40CB-B63A-413B2FFAB391}">
+  <dimension ref="B3:K40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="87.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A046AB0B-8796-4A06-809F-358A1ED5E280}">
-  <dimension ref="B2:T79"/>
+  <dimension ref="B2:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="S84" sqref="S84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,32 +1129,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:23" x14ac:dyDescent="0.2">
       <c r="E65">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:23" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:23" x14ac:dyDescent="0.2">
       <c r="G67" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:23" x14ac:dyDescent="0.2">
       <c r="E69">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:23" x14ac:dyDescent="0.2">
       <c r="G70" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:23" x14ac:dyDescent="0.2">
       <c r="G71" t="s">
         <v>54</v>
       </c>
@@ -832,32 +1162,63 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="S72" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="S73" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D74" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="75" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="S74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+    </row>
+    <row r="75" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D75" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="76" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="S75" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+    </row>
+    <row r="76" spans="4:23" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="77" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="S76" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+    </row>
+    <row r="77" spans="4:23" x14ac:dyDescent="0.2">
       <c r="H77" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:23" x14ac:dyDescent="0.2">
       <c r="H78" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="4:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:23" x14ac:dyDescent="0.2">
       <c r="H79" t="s">
         <v>50</v>
       </c>

--- a/doc/ue_package.xlsx
+++ b/doc/ue_package.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE4C4CC-4FB0-4062-AD0B-22C5FC045B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="3" r:id="rId1"/>
     <sheet name="流程解析" sheetId="2" r:id="rId2"/>
+    <sheet name="多语言版本支持" sheetId="4" r:id="rId3"/>
+    <sheet name="重定向原理" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="134">
   <si>
     <t>UPackage* LoadPackage(UPackage* InOuter, const TCHAR* InLongPackageName, uint32 LoadFlags, FArchive* InReaderOverride, const FLinkerInstancingContext* InstancingContext)</t>
   </si>
@@ -256,12 +257,228 @@
   </si>
   <si>
     <t>[UTexture2D] = (Name=xxx111)</t>
+  </si>
+  <si>
+    <t>可以看出来，重定向发生在读取UE的asset资源的时候，创建PackageLinker时候；非资源资源没用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会根据自己当前的语言，从L10N目录下面读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为Linker.cpp里面和异步加载的创建Linker里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linker.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建packagelinker的函数里：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLinkerLoad* GetPackageLinker</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>UPackage*</t>
+  </si>
+  <si>
+    <t>InOuter,</t>
+  </si>
+  <si>
+    <t>const TCHAR*</t>
+  </si>
+  <si>
+    <t>InLongPackageName,</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>LoadFlags,</t>
+  </si>
+  <si>
+    <t>UPackageMap*</t>
+  </si>
+  <si>
+    <t>Sandbox,</t>
+  </si>
+  <si>
+    <t>FGuid*</t>
+  </si>
+  <si>
+    <t>CompatibleGuid,</t>
+  </si>
+  <si>
+    <t>FArchive*</t>
+  </si>
+  <si>
+    <t>InReaderOverride,</t>
+  </si>
+  <si>
+    <t>FUObjectSerializeContext** InOutLoadContext,</t>
+  </si>
+  <si>
+    <t>FLinkerLoad*</t>
+  </si>
+  <si>
+    <t>ImportLinker,</t>
+  </si>
+  <si>
+    <t>const FLinkerInstancingContext* InstancingContext</t>
+  </si>
+  <si>
+    <t>// The editor must not redirect packages for localization. We also shouldn't redirect script packages.</t>
+  </si>
+  <si>
+    <t>FString PackageNameToLoad = PackageNameToCreate;</t>
+  </si>
+  <si>
+    <t>if (!(GIsEditor || FPackageName::IsScriptPackage(PackageNameToLoad)))</t>
+  </si>
+  <si>
+    <t>非编辑器且非Script目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这就解释了编辑器模式下为啥不行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>// Allow delegates to resolve this path</t>
+  </si>
+  <si>
+    <t>PackageNameToLoad = FPackageName::GetDelegateResolvedPackagePath(PackageNameToLoad);</t>
+  </si>
+  <si>
+    <t>PackageNameToLoad = FPackageName::GetLocalizedPackagePath(PackageNameToLoad);</t>
+  </si>
+  <si>
+    <t>重定向！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>// The editor must not redirect packages for localization. We also shouldn't redirect script or in-memory packages.</t>
+  </si>
+  <si>
+    <t>if (!(GIsEditor || InOuter-&gt;HasAnyPackageFlags(PKG_InMemoryOnly) || FPackageName::IsScriptPackage(PackageNameToLoad)))</t>
+  </si>
+  <si>
+    <t>重定向！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAsyncPackage</t>
+  </si>
+  <si>
+    <t>在创建linker函数里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncPackage::CreateLinker()</t>
+  </si>
+  <si>
+    <t>// The editor must not redirect packages for localization.</t>
+  </si>
+  <si>
+    <t>if (!GIsEditor)</t>
+  </si>
+  <si>
+    <t>非编辑器且非Script目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCOPED_LOADTIMER(CreateLinker_MassagePath);</t>
+  </si>
+  <si>
+    <t>NameToLoad = FPackageName::GetDelegateResolvedPackagePath(NameToLoad);</t>
+  </si>
+  <si>
+    <t>NameToLoad = FPackageName::GetLocalizedPackagePath(NameToLoad);</t>
+  </si>
+  <si>
+    <t>底层当前资源到多语言资源路径的转换方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前语言：const FString CurrentCultureName = FInternationalization::Get().GetCurrentCulture()-&gt;GetName();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPackageLocalizationUtil</t>
+  </si>
+  <si>
+    <t>static bool ConvertLocalizedToSource(const FString&amp; InLocalized, FString&amp; OutSource);</t>
+  </si>
+  <si>
+    <t>static bool ConvertSourceToLocalized(const FString&amp; InSource, const FString&amp; InCulture, FString&amp; OutLocalized);</t>
+  </si>
+  <si>
+    <t>static bool GetLocalizedRoot(const FString&amp; InPath, const FString&amp; InCulture, FString&amp; OutLocalized);</t>
+  </si>
+  <si>
+    <t>FName FPackageLocalizationManager::FindLocalizedPackageNameNoCache(const FName InSourcePackageName, const FString&amp; InCultureName) const</t>
+  </si>
+  <si>
+    <t>FString FPackageName::GetLocalizedPackagePath(const FString&amp; InSourcePackagePath)</t>
+  </si>
+  <si>
+    <t>调用FindLocalizedPackageName</t>
+  </si>
+  <si>
+    <t>FString FPackageName::GetLocalizedPackagePath(const FString&amp; InSourcePackagePath, const FString&amp; InCultureName)</t>
+  </si>
+  <si>
+    <t>内部获取当前语言</t>
+  </si>
+  <si>
+    <t>FName FPackageLocalizationManager::FindLocalizedPackageName(const FName InSourcePackageName)</t>
+  </si>
+  <si>
+    <t>const FString CurrentCultureName = FInternationalization::Get().GetCurrentCulture()-&gt;GetName();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return FindLocalizedPackageNameNoCache(InSourcePackageName, CurrentCultureName);</t>
+  </si>
+  <si>
+    <t>指定语言</t>
+  </si>
+  <si>
+    <t>FName FPackageLocalizationManager::FindLocalizedPackageNameForCulture(const FName InSourcePackageName, const FString&amp; InCultureName)</t>
+  </si>
+  <si>
+    <t>内部会判断多语言版本的资源存在不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在了就返回多语言的目录，不存在就返回传入的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -805,7 +1022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCBA259-14B5-40CB-B63A-413B2FFAB391}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K40"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -886,10 +1103,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A046AB0B-8796-4A06-809F-358A1ED5E280}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="S84" sqref="S84"/>
     </sheetView>
   </sheetViews>
@@ -1231,4 +1448,418 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:U59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30:T31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>104</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>2</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C49" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>111</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:Q29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_package.xlsx
+++ b/doc/ue_package.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6B12D5-EFA6-4234-964E-3ECBA4175ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="3" r:id="rId1"/>
     <sheet name="流程解析" sheetId="2" r:id="rId2"/>
-    <sheet name="多语言版本支持" sheetId="4" r:id="rId3"/>
-    <sheet name="重定向原理" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
+    <sheet name="多语言版本支持" sheetId="4" r:id="rId4"/>
+    <sheet name="重定向原理" sheetId="5" r:id="rId5"/>
+    <sheet name="多线程读取版本" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="142">
   <si>
     <t>UPackage* LoadPackage(UPackage* InOuter, const TCHAR* InLongPackageName, uint32 LoadFlags, FArchive* InReaderOverride, const FLinkerInstancingContext* InstancingContext)</t>
   </si>
@@ -472,13 +475,41 @@
   </si>
   <si>
     <t>存在了就返回多语言的目录，不存在就返回传入的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void EndLoad(FUObjectSerializeContext* LoadContext, TArray&lt;UPackage*&gt;* OutLoadedPackages)</t>
+  </si>
+  <si>
+    <t>Obj-&gt;GetLinker()-&gt;Preload(Obj);</t>
+  </si>
+  <si>
+    <t>void UObject::Serialize( FArchive&amp; Ar )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在EndLoad里面会进行反序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用到了异步读取文件的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAsyncPackage::Event_CreateLinker()</t>
+  </si>
+  <si>
+    <t>bool bCanUseAsyncLoader = FPlatformProperties::RequiresCookedData() || GAllowCookedDataInEditorBuilds;</t>
+  </si>
+  <si>
+    <t>根据这个判断是否走异步加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,6 +791,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>36457</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>94813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C18DD2-D3F8-3B2F-CE75-9F6E631230AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="2028825"/>
+          <a:ext cx="13142857" cy="3495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1022,7 +1102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K40"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -1103,11 +1183,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:W86"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="S84" sqref="S84"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1441,6 +1521,26 @@
       </c>
       <c r="S79" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1551,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9BB7D7-2A13-4F0A-B351-8942ECF651FD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:U59"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -1757,11 +1870,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
@@ -1862,4 +1975,46 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C363B8DD-7AB0-457E-ACEA-F6E20FD698FA}">
+  <dimension ref="C4:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_package.xlsx
+++ b/doc/ue_package.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6B12D5-EFA6-4234-964E-3ECBA4175ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE9F3C3-B4B0-40C7-915D-13FE0D4F52D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="多语言版本支持" sheetId="4" r:id="rId4"/>
     <sheet name="重定向原理" sheetId="5" r:id="rId5"/>
     <sheet name="多线程读取版本" sheetId="6" r:id="rId6"/>
+    <sheet name="iostore读取" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="144">
   <si>
     <t>UPackage* LoadPackage(UPackage* InOuter, const TCHAR* InLongPackageName, uint32 LoadFlags, FArchive* InReaderOverride, const FLinkerInstancingContext* InstancingContext)</t>
   </si>
@@ -504,6 +505,13 @@
   <si>
     <t>根据这个判断是否走异步加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoStore一种新的读文件方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool FAsyncLoadingThread2::CreateAsyncPackagesFromQueue(FAsyncLoadingThreadState2&amp; ThreadState)</t>
   </si>
 </sst>
 </file>
@@ -840,6 +848,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>417397</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>8742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58AE132A-CE29-AB2F-9946-4CFF91D2FD81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314950" y="1162050"/>
+          <a:ext cx="13619047" cy="6266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1981,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C363B8DD-7AB0-457E-ACEA-F6E20FD698FA}">
   <dimension ref="C4:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2017,4 +2074,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F92AFC-4C83-41B1-A84D-1C93C8970954}">
+  <dimension ref="B3:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/ue_package.xlsx
+++ b/doc/ue_package.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE9F3C3-B4B0-40C7-915D-13FE0D4F52D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9DEC77-2843-464E-99FE-81237321085A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="3" r:id="rId1"/>
     <sheet name="流程解析" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
-    <sheet name="多语言版本支持" sheetId="4" r:id="rId4"/>
-    <sheet name="重定向原理" sheetId="5" r:id="rId5"/>
-    <sheet name="多线程读取版本" sheetId="6" r:id="rId6"/>
-    <sheet name="iostore读取" sheetId="8" r:id="rId7"/>
+    <sheet name="非编辑器流程解析" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
+    <sheet name="多语言版本支持" sheetId="4" r:id="rId5"/>
+    <sheet name="重定向原理" sheetId="5" r:id="rId6"/>
+    <sheet name="多线程读取版本" sheetId="6" r:id="rId7"/>
+    <sheet name="iostore读取" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="171">
   <si>
     <t>UPackage* LoadPackage(UPackage* InOuter, const TCHAR* InLongPackageName, uint32 LoadFlags, FArchive* InReaderOverride, const FLinkerInstancingContext* InstancingContext)</t>
   </si>
@@ -512,6 +513,96 @@
   </si>
   <si>
     <t>bool FAsyncLoadingThread2::CreateAsyncPackagesFromQueue(FAsyncLoadingThreadState2&amp; ThreadState)</t>
+  </si>
+  <si>
+    <t>！！！！这个里面会提交所有的异步加载，可能会导致卡顿！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UClass* MyWidgetClass = LoadClass&lt;UUserWidget&gt;(NULL, TEXT("WidgetBlueprint'/Game/ui/Lobby.Lobby_C'"));</t>
+  </si>
+  <si>
+    <t>编辑器下面加载和非编辑器模式是不一样的，主要是资源异步加载的方式不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UClass* StaticLoadClass( UClass* BaseClass, UObject* InOuter, const TCHAR* InName, const TCHAR* Filename, uint32 LoadFlags, UPackageMap* Sandbox )</t>
+  </si>
+  <si>
+    <t>UClass* Class = LoadObject&lt;UClass&gt;( InOuter, InName, Filename, LoadFlags, Sandbox );</t>
+  </si>
+  <si>
+    <t>UObject* StaticLoadObject(UClass* ObjectClass, UObject* InOuter, const TCHAR* InName, const TCHAR* Filename, uint32 LoadFlags, UPackageMap* Sandbox, bool bAllowObjectReconcil</t>
+  </si>
+  <si>
+    <t>UObject* Result = StaticLoadObjectInternal(ObjectClass, InOuter, InName, Filename, LoadFlags, Sandbox, bAllowObjectReconciliation, InstancingContext);</t>
+  </si>
+  <si>
+    <t>UObject* StaticLoadObjectInternal(UClass* ObjectClass, UObject* InOuter, const TCHAR* InName, const TCHAR* Filename, uint32 LoadFlags, UPackageMap* Sandbox, bool bAllowObjectReconci</t>
+  </si>
+  <si>
+    <t>ResolveName(InOuter, StrName, true, true, LoadFlags &amp; (LOAD_EditorOnly | LOAD_NoVerify | LOAD_Quiet | LOAD_NoWarn | LOAD_DeferDependencyLoads), InstancingContext);</t>
+  </si>
+  <si>
+    <t>InPackage = LoadPackage(Cast&lt;UPackage&gt;(InPackage), *PartialName, LoadFlags, nullptr, InstancingContext);</t>
+  </si>
+  <si>
+    <t>UPackage* LoadPackage(UPackage* InOuter, const TCHAR* InLongPackageNameOrFilename, uint32 LoadFlags, FArchive* InReaderOverride, const FLinkerInstancingContext* InstancingContext)</t>
+  </si>
+  <si>
+    <t>return LoadPackage(InOuter, PackagePath, LoadFlags, InReaderOverride, InstancingContext, DiffPackagePathPtr);</t>
+  </si>
+  <si>
+    <t>UPackage* LoadPackage(UPackage* InOuter, const FPackagePath&amp; PackagePath, uint32 LoadFlags, FArchive* InReaderOverride, const FLinkerInstancingContext* InstancingContext, const FPackagePath* DiffPackagePath)</t>
+  </si>
+  <si>
+    <t>return LoadPackageInternal(InOuter, PackagePath, LoadFlags, /*ImportLinker =*/ nullptr, InReaderOverride, InstancingContext, DiffPackagePath);</t>
+  </si>
+  <si>
+    <t>UPackage* LoadPackageInternal(UPackage* InOuter, const FPackagePath&amp; PackagePath, uint32 LoadFlags, FLinkerLoad* ImportLinker, FArchive* InReaderOverride,</t>
+  </si>
+  <si>
+    <t>const FLinkerInstancingContext* InstancingContext, const FPackagePath* DiffPackagePath)</t>
+  </si>
+  <si>
+    <t>if (ShouldAlwaysLoadPackageAsync(PackagePath))</t>
+  </si>
+  <si>
+    <t>这个判断一定是真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 RequestID = LoadPackageAsync(PackagePath, PackageName);</t>
+  </si>
+  <si>
+    <t>if (RequestID != INDEX_NONE)</t>
+  </si>
+  <si>
+    <t>FlushAsyncLoading(RequestID);</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！如果没找到自己，就是没加载过，则强制提交所有异步加载的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！并且这个的意思是什么，就是自己也发起一个异步加载，然后提交所有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！加载自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1162,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
@@ -1243,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:W86"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1315,6 +1406,9 @@
     <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F22" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.2">
@@ -1608,6 +1702,160 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930F6D6A-0CED-48FD-BF33-F27097149512}">
+  <dimension ref="B3:U32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>163</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="G30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>166</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9BB7D7-2A13-4F0A-B351-8942ECF651FD}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1620,7 +1868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:U59"/>
   <sheetViews>
@@ -1927,7 +2175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4:Q29"/>
   <sheetViews>
@@ -2034,7 +2282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C363B8DD-7AB0-457E-ACEA-F6E20FD698FA}">
   <dimension ref="C4:E10"/>
   <sheetViews>
@@ -2076,11 +2324,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F92AFC-4C83-41B1-A84D-1C93C8970954}">
   <dimension ref="B3:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_package.xlsx
+++ b/doc/ue_package.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9DEC77-2843-464E-99FE-81237321085A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="3" r:id="rId1"/>
@@ -21,6 +20,7 @@
     <sheet name="重定向原理" sheetId="5" r:id="rId6"/>
     <sheet name="多线程读取版本" sheetId="6" r:id="rId7"/>
     <sheet name="iostore读取" sheetId="8" r:id="rId8"/>
+    <sheet name="OpenAsyncRead" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -608,7 +608,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1250,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K40"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
@@ -1331,7 +1331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W86"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1702,10 +1702,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930F6D6A-0CED-48FD-BF33-F27097149512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
@@ -1856,7 +1856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9BB7D7-2A13-4F0A-B351-8942ECF651FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1869,7 +1869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:U59"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -2176,7 +2176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2283,7 +2283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C363B8DD-7AB0-457E-ACEA-F6E20FD698FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2325,7 +2325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F92AFC-4C83-41B1-A84D-1C93C8970954}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2350,4 +2350,20 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_package.xlsx
+++ b/doc/ue_package.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDEB607-83ED-48FA-8AB1-18F9078D005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="3" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="179">
   <si>
     <t>UPackage* LoadPackage(UPackage* InOuter, const TCHAR* InLongPackageName, uint32 LoadFlags, FArchive* InReaderOverride, const FLinkerInstancingContext* InstancingContext)</t>
   </si>
@@ -603,12 +604,40 @@
   <si>
     <t>！！！加载自己</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非编辑器下面都是异步读取的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器下是阻塞读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFileHandle* MyPlatformFile::OpenRead(const TCHAR* Filename, bool bAllowWrite)</t>
+  </si>
+  <si>
+    <t>IAsyncReadFileHandle* MyPlatformFile::OpenAsyncRead(const TCHAR* Filename)</t>
+  </si>
+  <si>
+    <t>ReadRequest::PerformRequest()</t>
+  </si>
+  <si>
+    <t>异步读取实际接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立线程读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAsyncPackage::ProcessImportsAndExports_Event()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -988,6 +1017,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>579328</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>37144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A09B1B2-6C30-F477-6DBD-9FBF0F1AFD08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="1981200"/>
+          <a:ext cx="13571428" cy="7647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1250,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K40"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
@@ -1331,7 +1409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:W86"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1702,7 +1780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1856,7 +1934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1869,7 +1947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A4:U59"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -2176,7 +2254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B4:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2283,7 +2361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C4:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2325,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B3:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2353,17 +2431,58 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="3"/>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>